--- a/templates/ERC000026/metadata_template_ERC000026.xlsx
+++ b/templates/ERC000026/metadata_template_ERC000026.xlsx
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="gender">'cv_sample'!$G$1:$G$3</definedName>
+    <definedName name="gender">'cv_sample'!$I$1:$I$3</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="sampletype">'cv_sample'!$J$1:$J$16</definedName>
+    <definedName name="sampletype">'cv_sample'!$L$1:$L$16</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="306">
   <si>
     <t>alias</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -2471,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,7 +2492,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,22 +2512,28 @@
         <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="150" customHeight="1">
+        <v>285</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -2535,27 +2553,33 @@
         <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L101">
       <formula1>sampletype</formula1>
     </dataValidation>
   </dataValidations>
@@ -2565,99 +2589,99 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:J16"/>
+  <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="7:10">
-      <c r="G1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="7:10">
-      <c r="G2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="7:10">
-      <c r="G3" t="s">
-        <v>276</v>
-      </c>
-      <c r="J3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="7:10">
-      <c r="J4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10">
-      <c r="J5" t="s">
+    <row r="1" spans="9:12">
+      <c r="I1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="7:10">
-      <c r="J6" t="s">
+    <row r="2" spans="9:12">
+      <c r="I2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="7:10">
-      <c r="J7" t="s">
+    <row r="3" spans="9:12">
+      <c r="I3" t="s">
+        <v>280</v>
+      </c>
+      <c r="L3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="7:10">
-      <c r="J8" t="s">
+    <row r="4" spans="9:12">
+      <c r="L4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="7:10">
-      <c r="J9" t="s">
+    <row r="5" spans="9:12">
+      <c r="L5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="7:10">
-      <c r="J10" t="s">
+    <row r="6" spans="9:12">
+      <c r="L6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="7:10">
-      <c r="J11" t="s">
+    <row r="7" spans="9:12">
+      <c r="L7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="7:10">
-      <c r="J12" t="s">
+    <row r="8" spans="9:12">
+      <c r="L8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="7:10">
-      <c r="J13" t="s">
+    <row r="9" spans="9:12">
+      <c r="L9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="7:10">
-      <c r="J14" t="s">
+    <row r="10" spans="9:12">
+      <c r="L10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="7:10">
-      <c r="J15" t="s">
+    <row r="11" spans="9:12">
+      <c r="L11" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="7:10">
-      <c r="J16" t="s">
+    <row r="12" spans="9:12">
+      <c r="L12" t="s">
         <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="9:12">
+      <c r="L13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="9:12">
+      <c r="L14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="9:12">
+      <c r="L15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="9:12">
+      <c r="L16" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000026/metadata_template_ERC000026.xlsx
+++ b/templates/ERC000026/metadata_template_ERC000026.xlsx
@@ -943,7 +943,7 @@
     <t>urine</t>
   </si>
   <si>
-    <t>sample_type</t>
+    <t>sample type</t>
   </si>
   <si>
     <t>donor_id</t>
